--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2019993.557981243</v>
+        <v>-2022802.373687981</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.9510873977987</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.1603092314733</v>
+        <v>153.2590892063688</v>
       </c>
       <c r="H2" t="n">
-        <v>239.1585686918016</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>127.8799231645349</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.28980726757982</v>
+        <v>15.28980726758007</v>
       </c>
       <c r="S2" t="n">
-        <v>160.1994850723023</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>101.164597667581</v>
       </c>
       <c r="I3" t="n">
-        <v>49.92971842544498</v>
+        <v>49.92971842544505</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.98666974321219</v>
+        <v>28.98666974321233</v>
       </c>
       <c r="S3" t="n">
         <v>150.3911478434578</v>
       </c>
       <c r="T3" t="n">
-        <v>178.6339962758659</v>
+        <v>195.5443345091571</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8659675948105</v>
+        <v>208.9556293615192</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>55.1382047511053</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>72.34707022130725</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2666101070915</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>117.5217749460487</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>58.15340830131657</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>74.49779601642724</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>1.024310528637143</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>383.0455734294786</v>
+        <v>173.4152811844649</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>6.980384243200406</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>31.3686494708828</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>132.6315337216643</v>
       </c>
       <c r="U13" t="n">
-        <v>235.5696871035117</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365959</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620682</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444161</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703258</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.73194049497363</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1847,16 +1847,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053454</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>216.4795114578124</v>
+        <v>103.9877674501594</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892427999</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>68.17501931583779</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652652</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2235.611249972884</v>
+        <v>1116.628141644282</v>
       </c>
       <c r="C2" t="n">
-        <v>1866.648733032473</v>
+        <v>747.6656247038707</v>
       </c>
       <c r="D2" t="n">
-        <v>1508.383034425722</v>
+        <v>747.6656247038707</v>
       </c>
       <c r="E2" t="n">
-        <v>1122.594781827478</v>
+        <v>747.6656247038707</v>
       </c>
       <c r="F2" t="n">
-        <v>711.6088770378703</v>
+        <v>336.6797199142631</v>
       </c>
       <c r="G2" t="n">
-        <v>294.2752313495135</v>
+        <v>181.8725590997491</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>181.8725590997491</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8886863935818</v>
+        <v>220.8886863935815</v>
       </c>
       <c r="K2" t="n">
-        <v>593.7033549744691</v>
+        <v>593.7033549744682</v>
       </c>
       <c r="L2" t="n">
-        <v>1108.489545419346</v>
+        <v>1108.489545419344</v>
       </c>
       <c r="M2" t="n">
-        <v>1363.331740139929</v>
+        <v>1252.876518284236</v>
       </c>
       <c r="N2" t="n">
-        <v>1514.668853556541</v>
+        <v>1514.668853556542</v>
       </c>
       <c r="O2" t="n">
-        <v>2021.229116543221</v>
+        <v>2021.229116543222</v>
       </c>
       <c r="P2" t="n">
         <v>2415.892198408933</v>
@@ -4355,25 +4355,25 @@
         <v>2619.60172721541</v>
       </c>
       <c r="S2" t="n">
-        <v>2457.784065526216</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="T2" t="n">
-        <v>2457.784065526216</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="U2" t="n">
-        <v>2457.784065526216</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="V2" t="n">
-        <v>2457.784065526216</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="W2" t="n">
-        <v>2457.784065526216</v>
+        <v>2266.833071945296</v>
       </c>
       <c r="X2" t="n">
-        <v>2457.784065526216</v>
+        <v>1893.367313684216</v>
       </c>
       <c r="Y2" t="n">
-        <v>2457.784065526216</v>
+        <v>1503.227981708404</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>972.0538392045411</v>
+        <v>972.0538392045413</v>
       </c>
       <c r="C3" t="n">
-        <v>797.6008099234141</v>
+        <v>797.6008099234143</v>
       </c>
       <c r="D3" t="n">
-        <v>648.6664002621628</v>
+        <v>648.6664002621631</v>
       </c>
       <c r="E3" t="n">
-        <v>489.4289452567074</v>
+        <v>489.4289452567075</v>
       </c>
       <c r="F3" t="n">
-        <v>342.8943872835923</v>
+        <v>342.8943872835924</v>
       </c>
       <c r="G3" t="n">
         <v>205.3214408456998</v>
       </c>
       <c r="H3" t="n">
-        <v>103.1349785552138</v>
+        <v>103.1349785552139</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>159.179021593283</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7879007003855</v>
+        <v>361.3097986467151</v>
       </c>
       <c r="L3" t="n">
-        <v>944.1550196478522</v>
+        <v>837.6769175941813</v>
       </c>
       <c r="M3" t="n">
-        <v>1552.032200314421</v>
+        <v>1070.98641089392</v>
       </c>
       <c r="N3" t="n">
-        <v>1717.15614394557</v>
+        <v>1710.659305125186</v>
       </c>
       <c r="O3" t="n">
-        <v>2229.41935485207</v>
+        <v>2229.419354852071</v>
       </c>
       <c r="P3" t="n">
         <v>2628.766961774352</v>
@@ -4437,13 +4437,13 @@
         <v>2453.856262246632</v>
       </c>
       <c r="T3" t="n">
-        <v>2273.41788217</v>
+        <v>2256.336732439403</v>
       </c>
       <c r="U3" t="n">
         <v>2045.27044015504</v>
       </c>
       <c r="V3" t="n">
-        <v>1810.118331923297</v>
+        <v>1810.118331923298</v>
       </c>
       <c r="W3" t="n">
         <v>1555.880975195096</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255.286023351771</v>
+        <v>441.6048986738213</v>
       </c>
       <c r="C4" t="n">
-        <v>255.286023351771</v>
+        <v>272.6687157459144</v>
       </c>
       <c r="D4" t="n">
-        <v>255.286023351771</v>
+        <v>272.6687157459144</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5908670375232</v>
+        <v>272.6687157459144</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>125.778768248004</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>125.778768248004</v>
       </c>
       <c r="H4" t="n">
-        <v>52.70091953961285</v>
+        <v>125.778768248004</v>
       </c>
       <c r="I4" t="n">
         <v>52.70091953961285</v>
@@ -4489,49 +4489,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>141.1905938405665</v>
+        <v>141.1905938405663</v>
       </c>
       <c r="L4" t="n">
-        <v>309.953345620195</v>
+        <v>309.9533456201945</v>
       </c>
       <c r="M4" t="n">
-        <v>498.279128182488</v>
+        <v>498.2791281824872</v>
       </c>
       <c r="N4" t="n">
-        <v>687.5615609861238</v>
+        <v>687.5615609861227</v>
       </c>
       <c r="O4" t="n">
-        <v>846.3782284153084</v>
+        <v>846.378228415307</v>
       </c>
       <c r="P4" t="n">
-        <v>958.7526415992053</v>
+        <v>958.7526415992037</v>
       </c>
       <c r="Q4" t="n">
-        <v>958.7526415992053</v>
+        <v>958.7526415992037</v>
       </c>
       <c r="R4" t="n">
-        <v>958.7526415992053</v>
+        <v>958.7526415992037</v>
       </c>
       <c r="S4" t="n">
-        <v>958.7526415992053</v>
+        <v>958.7526415992037</v>
       </c>
       <c r="T4" t="n">
-        <v>958.7526415992053</v>
+        <v>958.7526415992037</v>
       </c>
       <c r="U4" t="n">
-        <v>958.7526415992053</v>
+        <v>669.5944495718386</v>
       </c>
       <c r="V4" t="n">
-        <v>704.0681533933184</v>
+        <v>669.5944495718386</v>
       </c>
       <c r="W4" t="n">
-        <v>704.0681533933184</v>
+        <v>669.5944495718386</v>
       </c>
       <c r="X4" t="n">
-        <v>476.0786024953011</v>
+        <v>441.6048986738213</v>
       </c>
       <c r="Y4" t="n">
-        <v>255.286023351771</v>
+        <v>441.6048986738213</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.3178008110954</v>
+        <v>1290.225788057021</v>
       </c>
       <c r="C5" t="n">
-        <v>178.3552838706836</v>
+        <v>921.2632711166095</v>
       </c>
       <c r="D5" t="n">
-        <v>178.3552838706836</v>
+        <v>921.2632711166095</v>
       </c>
       <c r="E5" t="n">
-        <v>178.3552838706836</v>
+        <v>535.4750185183652</v>
       </c>
       <c r="F5" t="n">
-        <v>171.4097831214802</v>
+        <v>124.4891137287577</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>111.4417360055892</v>
       </c>
       <c r="H5" t="n">
         <v>52.70091953961285</v>
@@ -4565,25 +4565,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>1197.621189819594</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1384.320602645002</v>
+        <v>896.0109951791954</v>
       </c>
       <c r="N5" t="n">
-        <v>1942.166326942443</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4604,13 +4604,13 @@
         <v>2050.291386382223</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.522731112109</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.056972851029</v>
+        <v>1676.825628121143</v>
       </c>
       <c r="Y5" t="n">
-        <v>933.9176408752171</v>
+        <v>1676.825628121143</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4653,13 @@
         <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>986.7313792423969</v>
       </c>
       <c r="N6" t="n">
-        <v>1917.389507838902</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2466.825516591625</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
         <v>2612.309035778665</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.951218546105</v>
+        <v>555.0084827294094</v>
       </c>
       <c r="C7" t="n">
-        <v>127.951218546105</v>
+        <v>386.0722998015025</v>
       </c>
       <c r="D7" t="n">
-        <v>127.951218546105</v>
+        <v>386.0722998015025</v>
       </c>
       <c r="E7" t="n">
-        <v>127.951218546105</v>
+        <v>386.0722998015025</v>
       </c>
       <c r="F7" t="n">
-        <v>127.951218546105</v>
+        <v>239.1823523035921</v>
       </c>
       <c r="G7" t="n">
-        <v>127.951218546105</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4750,25 +4750,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T7" t="n">
-        <v>827.0064043113226</v>
+        <v>844.1606591517295</v>
       </c>
       <c r="U7" t="n">
-        <v>827.0064043113226</v>
+        <v>555.0084827294094</v>
       </c>
       <c r="V7" t="n">
-        <v>827.0064043113226</v>
+        <v>555.0084827294094</v>
       </c>
       <c r="W7" t="n">
-        <v>537.5892342743621</v>
+        <v>555.0084827294094</v>
       </c>
       <c r="X7" t="n">
-        <v>309.5996833763447</v>
+        <v>555.0084827294094</v>
       </c>
       <c r="Y7" t="n">
-        <v>309.5996833763447</v>
+        <v>555.0084827294094</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1697.522731112109</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="C8" t="n">
-        <v>1328.560214171697</v>
+        <v>740.2945941783285</v>
       </c>
       <c r="D8" t="n">
-        <v>970.2945155649466</v>
+        <v>740.2945941783285</v>
       </c>
       <c r="E8" t="n">
-        <v>970.2945155649466</v>
+        <v>354.5063415800842</v>
       </c>
       <c r="F8" t="n">
-        <v>559.308610775339</v>
+        <v>347.5608408308807</v>
       </c>
       <c r="G8" t="n">
         <v>172.393890139502</v>
@@ -4802,22 +4802,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3115823537878</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.029393337099</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2138.506086713905</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
         <v>2389.870016205742</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.354273725794</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.291386382223</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.522731112109</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.522731112109</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.522731112109</v>
+        <v>1109.25711111874</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1278.563523185117</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
-        <v>1930.737402487826</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2090.249715156587</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>839.3016316526747</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>670.3654487247678</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>670.3654487247678</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>522.4523551423747</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
         <v>52.70091953961285</v>
@@ -4990,22 +4990,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>1020.950096482914</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>1020.950096482914</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>1020.950096482914</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W10" t="n">
-        <v>1020.950096482914</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X10" t="n">
-        <v>1020.950096482914</v>
+        <v>280.5443918580929</v>
       </c>
       <c r="Y10" t="n">
-        <v>1020.950096482914</v>
+        <v>59.75181271456276</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2312.991837396762</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.113366595131</v>
+        <v>2023.91661074096</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389244</v>
+        <v>1769.232122535073</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168635</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436271</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2420.971224494428</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2238.116390149333</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168632</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>810.0653816078146</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>641.1291986799076</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>491.0125592675718</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1978.396372297858</v>
+        <v>2092.024396548012</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1802.94916989221</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1548.264681686323</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1258.847511649362</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1030.857960751345</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>810.0653816078146</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6251,10 +6251,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6373,10 +6373,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,25 +6883,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,22 +7120,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,7 +7582,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7591,19 +7591,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7670,28 +7670,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,19 +7834,19 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400515</v>
@@ -7985,10 +7985,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>111.570931167364</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>111.570931167368</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>18.53739690235838</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>87.35386438956525</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>387.2998558217951</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>367.1833448539995</v>
+        <v>326.3116737658505</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>184.4078422411148</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>37.16554713105234</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>142.0501052952623</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>207.4678568043326</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162.7827542656818</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>103.6630163935357</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>160.1994850723024</v>
       </c>
       <c r="T2" t="n">
         <v>213.7173697524019</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1742586451435</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>54.20292520373211</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>84.77391660562412</v>
       </c>
       <c r="U13" t="n">
-        <v>50.61478728573246</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194315</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.64330621514806</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194294</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.925938869475857</v>
+        <v>113.417682877129</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865137</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405077</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>72.1196935303861</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1184103.572835845</v>
+        <v>1184103.572835846</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1337891.329138634</v>
+        <v>1337891.329138633</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1337891.329138634</v>
+        <v>1337891.329138633</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1337891.329138634</v>
+        <v>1337891.329138633</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1337891.329138634</v>
+        <v>1337891.329138633</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1337891.329138634</v>
+        <v>1337891.329138633</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1337891.329138634</v>
+        <v>1337891.329138633</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.85635772868</v>
+        <v>67700.8563577287</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="D2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.65996900057</v>
+      </c>
+      <c r="F2" t="n">
         <v>80714.6599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>80714.65996900061</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>80714.6599690006</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>80714.65996900061</v>
       </c>
-      <c r="I2" t="n">
-        <v>80714.65996900057</v>
-      </c>
       <c r="J2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="K2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="O2" t="n">
-        <v>82104.17698642839</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642843</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>734303.4749798377</v>
+        <v>734303.4749798367</v>
       </c>
       <c r="C3" t="n">
-        <v>55134.27828024331</v>
+        <v>55134.27828024426</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765849</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118923.607285676</v>
+        <v>118923.6072856763</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707402</v>
+        <v>6897.424496707211</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707392</v>
+        <v>6897.424496707212</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707413</v>
+        <v>6897.424496707219</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707339</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707332</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707423</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980087</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980081</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980089</v>
       </c>
       <c r="O4" t="n">
         <v>14888.28375980083</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980079</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85298.15182533272</v>
+        <v>85298.15182533271</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870824.3777331177</v>
+        <v>-871184.4607488344</v>
       </c>
       <c r="C6" t="n">
-        <v>-249539.9915529094</v>
+        <v>-249539.9915529103</v>
       </c>
       <c r="D6" t="n">
         <v>-194405.7132726661</v>
       </c>
       <c r="E6" t="n">
-        <v>-802993.6416281983</v>
+        <v>-803028.3795536343</v>
       </c>
       <c r="F6" t="n">
-        <v>-27305.29435161388</v>
+        <v>-27340.03227704945</v>
       </c>
       <c r="G6" t="n">
-        <v>-27305.29435161392</v>
+        <v>-27340.03227704944</v>
       </c>
       <c r="H6" t="n">
-        <v>-27305.29435161391</v>
+        <v>-27340.03227704934</v>
       </c>
       <c r="I6" t="n">
-        <v>-27305.29435161395</v>
+        <v>-27340.03227704951</v>
       </c>
       <c r="J6" t="n">
-        <v>-199666.2867518947</v>
+        <v>-199701.0246773304</v>
       </c>
       <c r="K6" t="n">
-        <v>-27305.29435161391</v>
+        <v>-27340.03227704958</v>
       </c>
       <c r="L6" t="n">
-        <v>-55375.94062091962</v>
+        <v>-55375.94062091967</v>
       </c>
       <c r="M6" t="n">
-        <v>-164025.8194430017</v>
+        <v>-164025.8194430018</v>
       </c>
       <c r="N6" t="n">
+        <v>-35948.22262728796</v>
+      </c>
+      <c r="O6" t="n">
         <v>-35948.22262728786</v>
       </c>
-      <c r="O6" t="n">
-        <v>-35948.22262728785</v>
-      </c>
       <c r="P6" t="n">
-        <v>-35948.22262728785</v>
+        <v>-35948.22262728779</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.92903556087</v>
+        <v>532.929035560869</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26796,13 +26796,13 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.92903556087</v>
+        <v>532.929035560869</v>
       </c>
       <c r="C3" t="n">
-        <v>60.54706477719499</v>
+        <v>60.54706477719603</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>156.2382036315687</v>
       </c>
       <c r="H2" t="n">
-        <v>78.37508976391425</v>
+        <v>317.5336584557159</v>
       </c>
       <c r="I2" t="n">
-        <v>127.8799231645348</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1742586451435</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>16.91033823329116</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>16.91033823329136</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>91.29575789546388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>153.6828348553325</v>
       </c>
       <c r="I4" t="n">
-        <v>126.5499954250393</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.41509635344514</v>
+        <v>25.41509635344528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.689758882003019</v>
+        <v>5.689758882003161</v>
       </c>
       <c r="R4" t="n">
-        <v>134.0824567889062</v>
+        <v>134.0824567889063</v>
       </c>
       <c r="S4" t="n">
-        <v>207.2686478538544</v>
+        <v>207.2686478538545</v>
       </c>
       <c r="T4" t="n">
         <v>223.8394148919928</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2666101070915</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>295.3951289998881</v>
-      </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>256.887475773899</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>78.21430065280531</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.3485941921216</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>29.87133051645816</v>
+        <v>239.5016227614719</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27904,7 +27904,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>172.8515959387369</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>192.0042552498759</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28293,13 +28293,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28308,13 +28308,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-4.970696508294898e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-2.363549356232397e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,13 +28378,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28773,22 +28773,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.031530798956331e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28798,13 +28798,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29323,13 +29323,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.142428283661788</v>
+        <v>2.142428283661783</v>
       </c>
       <c r="H2" t="n">
-        <v>21.94114366005129</v>
+        <v>21.94114366005125</v>
       </c>
       <c r="I2" t="n">
-        <v>82.59596640587114</v>
+        <v>82.59596640587098</v>
       </c>
       <c r="J2" t="n">
-        <v>181.8359225404398</v>
+        <v>181.8359225404394</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5249117878433</v>
+        <v>272.5249117878428</v>
       </c>
       <c r="L2" t="n">
-        <v>338.0912513739578</v>
+        <v>338.0912513739572</v>
       </c>
       <c r="M2" t="n">
-        <v>376.1916603635281</v>
+        <v>376.1916603635274</v>
       </c>
       <c r="N2" t="n">
-        <v>382.2788347244822</v>
+        <v>382.2788347244814</v>
       </c>
       <c r="O2" t="n">
-        <v>360.9750634788203</v>
+        <v>360.9750634788196</v>
       </c>
       <c r="P2" t="n">
-        <v>308.0838652259199</v>
+        <v>308.0838652259193</v>
       </c>
       <c r="Q2" t="n">
-        <v>231.358152317282</v>
+        <v>231.3581523172816</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5793106735699</v>
+        <v>134.5793106735696</v>
       </c>
       <c r="S2" t="n">
-        <v>48.82058451394303</v>
+        <v>48.82058451394294</v>
       </c>
       <c r="T2" t="n">
-        <v>9.378479811729479</v>
+        <v>9.378479811729461</v>
       </c>
       <c r="U2" t="n">
-        <v>0.171394262692943</v>
+        <v>0.1713942626929426</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.146300189696966</v>
+        <v>1.146300189696964</v>
       </c>
       <c r="H3" t="n">
-        <v>11.07084656891543</v>
+        <v>11.07084656891541</v>
       </c>
       <c r="I3" t="n">
-        <v>39.4669144259701</v>
+        <v>39.46691442597002</v>
       </c>
       <c r="J3" t="n">
-        <v>108.3002297643085</v>
+        <v>108.3002297643083</v>
       </c>
       <c r="K3" t="n">
-        <v>185.1023424740052</v>
+        <v>185.1023424740049</v>
       </c>
       <c r="L3" t="n">
-        <v>248.8929425041592</v>
+        <v>248.8929425041587</v>
       </c>
       <c r="M3" t="n">
-        <v>290.4463243806741</v>
+        <v>290.4463243806736</v>
       </c>
       <c r="N3" t="n">
-        <v>298.1335743370192</v>
+        <v>298.1335743370186</v>
       </c>
       <c r="O3" t="n">
-        <v>272.7339753968917</v>
+        <v>272.7339753968911</v>
       </c>
       <c r="P3" t="n">
-        <v>218.893059908011</v>
+        <v>218.8930599080105</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.3242136883355</v>
+        <v>146.3242136883352</v>
       </c>
       <c r="R3" t="n">
-        <v>71.17116440943094</v>
+        <v>71.1711644094308</v>
       </c>
       <c r="S3" t="n">
-        <v>21.29202326038003</v>
+        <v>21.29202326037999</v>
       </c>
       <c r="T3" t="n">
-        <v>4.620394185664523</v>
+        <v>4.620394185664514</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0754144861642741</v>
+        <v>0.07541448616427394</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9610195723228803</v>
+        <v>0.9610195723228784</v>
       </c>
       <c r="H4" t="n">
-        <v>8.544337652107069</v>
+        <v>8.544337652107053</v>
       </c>
       <c r="I4" t="n">
-        <v>28.90047950221899</v>
+        <v>28.90047950221894</v>
       </c>
       <c r="J4" t="n">
-        <v>67.94408376322764</v>
+        <v>67.9440837632275</v>
       </c>
       <c r="K4" t="n">
-        <v>111.6530012207855</v>
+        <v>111.6530012207853</v>
       </c>
       <c r="L4" t="n">
-        <v>142.8774007797126</v>
+        <v>142.8774007797123</v>
       </c>
       <c r="M4" t="n">
-        <v>150.6441862323948</v>
+        <v>150.6441862323945</v>
       </c>
       <c r="N4" t="n">
-        <v>147.0622041901005</v>
+        <v>147.0622041901002</v>
       </c>
       <c r="O4" t="n">
-        <v>135.8357482770559</v>
+        <v>135.8357482770556</v>
       </c>
       <c r="P4" t="n">
-        <v>116.230949001669</v>
+        <v>116.2309490016688</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.47228436969137</v>
+        <v>80.47228436969122</v>
       </c>
       <c r="R4" t="n">
-        <v>43.21093458826331</v>
+        <v>43.21093458826324</v>
       </c>
       <c r="S4" t="n">
-        <v>16.74795018311783</v>
+        <v>16.74795018311779</v>
       </c>
       <c r="T4" t="n">
-        <v>4.10617453628867</v>
+        <v>4.106174536288662</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05241924939942989</v>
+        <v>0.0524192493994298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>303.4297552732313</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>301.644515672455</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>519.7862086120942</v>
+        <v>744.7005224868046</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>744.7005224868051</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.8866331858273</v>
+        <v>169.8866331858269</v>
       </c>
       <c r="K2" t="n">
-        <v>376.5804733140275</v>
+        <v>376.580473314027</v>
       </c>
       <c r="L2" t="n">
-        <v>519.986050954421</v>
+        <v>519.9860509544203</v>
       </c>
       <c r="M2" t="n">
-        <v>257.4163583036193</v>
+        <v>145.8454271362546</v>
       </c>
       <c r="N2" t="n">
-        <v>152.8657711278913</v>
+        <v>264.4367022952586</v>
       </c>
       <c r="O2" t="n">
-        <v>511.6770333198789</v>
+        <v>511.6770333198782</v>
       </c>
       <c r="P2" t="n">
-        <v>398.649577642133</v>
+        <v>398.6495776421324</v>
       </c>
       <c r="Q2" t="n">
-        <v>221.3674531027372</v>
+        <v>221.3674531027368</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107.5536384380507</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>311.7261405122248</v>
+        <v>311.7261405122244</v>
       </c>
       <c r="L3" t="n">
-        <v>481.1789080277442</v>
+        <v>481.1789080277437</v>
       </c>
       <c r="M3" t="n">
-        <v>614.0173542086557</v>
+        <v>235.6661548482205</v>
       </c>
       <c r="N3" t="n">
-        <v>166.7918622536859</v>
+        <v>646.1342365972389</v>
       </c>
       <c r="O3" t="n">
-        <v>517.4375867742423</v>
+        <v>524.0000502291762</v>
       </c>
       <c r="P3" t="n">
-        <v>403.3814211336179</v>
+        <v>403.3814211336174</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.342439602313988</v>
+        <v>6.342439602313704</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>89.38350939490267</v>
+        <v>89.38350939490246</v>
       </c>
       <c r="L4" t="n">
-        <v>170.4674260400288</v>
+        <v>170.4674260400285</v>
       </c>
       <c r="M4" t="n">
-        <v>190.2280631942353</v>
+        <v>190.2280631942351</v>
       </c>
       <c r="N4" t="n">
-        <v>191.1943765693291</v>
+        <v>191.1943765693288</v>
       </c>
       <c r="O4" t="n">
-        <v>160.4208761910956</v>
+        <v>160.4208761910953</v>
       </c>
       <c r="P4" t="n">
-        <v>113.5095082665625</v>
+        <v>113.5095082665623</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
@@ -34945,16 +34945,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>563.4805295933756</v>
+        <v>522.6088585052266</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>365.7182830033419</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
@@ -35030,7 +35030,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>146.9530496838794</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>253.9029590826628</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35255,19 +35255,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>317.2553593571597</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010443</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>160.8335108287869</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35820,10 +35820,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36057,10 +36057,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>388.4444965287609</v>
+        <v>613.3588104034714</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36294,10 +36294,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>613.3588104034718</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902436</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
